--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU029-001_InqKepBayar10%.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU029-001_InqKepBayar10%.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8773F3-49C3-4713-A295-141745C6714F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A4C73D-5544-428E-B4F4-404FBC6730CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Normal - Transaksi Keuangan Kepesertaan</t>
   </si>
   <si>
-    <t>Penyelia Teller</t>
-  </si>
-  <si>
     <t>Keuangan Kepesertaan</t>
   </si>
   <si>
@@ -92,15 +89,18 @@
   </si>
   <si>
     <t>DPLKKEU029-001</t>
-  </si>
-  <si>
-    <t>DISK230200202</t>
   </si>
   <si>
     <t>Username : 32193;
 Password : bni1234;
 Role : 38 - Penyelia Teller;
-Kode Pembayaran : DISK230200202</t>
+Kode Pembayaran : DISK230200212</t>
+  </si>
+  <si>
+    <t>DISK230200212</t>
+  </si>
+  <si>
+    <t>Penyelia Settlement</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,15 +517,15 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -583,27 +583,27 @@
         <v>15</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6">
         <v>32193</v>
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>13</v>
@@ -621,10 +621,10 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>24</v>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU029-001_InqKepBayar10%.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU029-001_InqKepBayar10%.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A4C73D-5544-428E-B4F4-404FBC6730CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91279D3A-10AD-4F09-8B49-BBA617745B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>DISK230200212</t>
   </si>
   <si>
-    <t>Penyelia Settlement</t>
+    <t>Penyelia Teller</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
